--- a/利润表/300646.xlsx
+++ b/利润表/300646.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>118314419.64</v>
+        <v>228378431.75</v>
       </c>
       <c r="P2" t="n">
-        <v>528443972.8</v>
+        <v>733579538.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>368084542.4</v>
+        <v>443958944.34</v>
       </c>
       <c r="R2" t="n">
-        <v>13.0846567472</v>
+        <v>20.6133084115</v>
       </c>
       <c r="S2" t="n">
-        <v>239459978.45</v>
+        <v>296727498.68</v>
       </c>
       <c r="T2" t="n">
-        <v>239459978.45</v>
+        <v>296727498.68</v>
       </c>
       <c r="U2" t="n">
-        <v>12.4815552768</v>
+        <v>23.915278286</v>
       </c>
       <c r="V2" t="n">
-        <v>73420009.59</v>
+        <v>95178485.92</v>
       </c>
       <c r="W2" t="n">
-        <v>35227094.45</v>
+        <v>38390689.43</v>
       </c>
       <c r="X2" t="n">
-        <v>14022329.65</v>
+        <v>4618982.87</v>
       </c>
       <c r="Y2" t="n">
-        <v>155197341.46</v>
+        <v>292731929.84</v>
       </c>
       <c r="Z2" t="n">
-        <v>153861980.83</v>
+        <v>284793463.36</v>
       </c>
       <c r="AA2" t="n">
-        <v>35547561.19</v>
+        <v>56415031.61</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5955130.26</v>
+        <v>9043287.439999999</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>38.1847841003</v>
+        <v>38.8187918623</v>
       </c>
       <c r="AQ2" t="n">
-        <v>172.47360309607</v>
+        <v>88.619165177805</v>
       </c>
       <c r="AR2" t="n">
-        <v>174.336053653077</v>
+        <v>93.02671005351399</v>
       </c>
       <c r="AS2" t="n">
-        <v>116627290.56</v>
+        <v>230162786.96</v>
       </c>
       <c r="AT2" t="n">
-        <v>174.238704696222</v>
+        <v>97.34895795466799</v>
       </c>
     </row>
   </sheetData>
